--- a/【校区】-组员进度表.xlsx
+++ b/【校区】-组员进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -66,6 +66,22 @@
   </si>
   <si>
     <t>今天完成所有页面的布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成ppt，以及各种细节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成主页的js效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成所有的js效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -460,7 +476,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -509,7 +525,9 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -519,7 +537,9 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -529,7 +549,9 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -539,7 +561,9 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
